--- a/birthday_hash_probability.xlsx
+++ b/birthday_hash_probability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanYell\Documents\cis17c_git2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF267D-DC64-46BA-B319-A047CEB1E6E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BF2286-A433-4426-B941-682D468C25BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{121AC83B-5946-4ED6-BD12-3898CBB31DD7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{121AC83B-5946-4ED6-BD12-3898CBB31DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,6 @@
     <t xml:space="preserve"> = c -&gt;  (n-1)/n</t>
   </si>
   <si>
-    <t xml:space="preserve">Bloom Filter </t>
-  </si>
-  <si>
     <r>
       <t>E</t>
     </r>
@@ -232,14 +229,17 @@
   <si>
     <t>Expectation vs Approx.</t>
   </si>
+  <si>
+    <t>Birthday</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -321,7 +321,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -330,13 +330,13 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -348,7 +348,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -682,20 +682,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F0C880-54A0-4A6F-B634-177962B15561}">
   <dimension ref="B3:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="5.9375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.0625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -706,7 +706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -728,7 +728,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -739,7 +739,7 @@
         <v>44928</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -750,7 +750,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>3</v>
       </c>
@@ -761,7 +761,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -783,7 +783,7 @@
         <v>44932</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -794,7 +794,7 @@
         <v>44933</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>7</v>
       </c>
@@ -805,7 +805,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>8</v>
       </c>
@@ -816,7 +816,7 @@
         <v>44935</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>9</v>
       </c>
@@ -833,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>10</v>
       </c>
@@ -844,7 +844,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>11</v>
       </c>
@@ -855,7 +855,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>12</v>
       </c>
@@ -866,7 +866,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>13</v>
       </c>
@@ -877,7 +877,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>14</v>
       </c>
@@ -888,7 +888,7 @@
         <v>44941</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>15</v>
       </c>
@@ -899,7 +899,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>16</v>
       </c>
@@ -910,7 +910,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>17</v>
       </c>
@@ -921,7 +921,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>18</v>
       </c>
@@ -932,7 +932,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>19</v>
       </c>
@@ -943,7 +943,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>20</v>
       </c>
@@ -954,7 +954,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>21</v>
       </c>
@@ -965,7 +965,7 @@
         <v>44948</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>22</v>
       </c>
@@ -976,7 +976,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>23</v>
       </c>
@@ -987,7 +987,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>24</v>
       </c>
@@ -998,7 +998,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>25</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>26</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>27</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>28</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>44955</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>29</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>30</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>31</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>32</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>33</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>44960</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>34</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>35</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>36</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>37</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>38</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>39</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>40</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>41</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>44968</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>42</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>43</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>44</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>45</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>46</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>44973</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>47</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>48</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>44975</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>49</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>50</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>51</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>52</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>53</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>54</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>55</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>56</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>57</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>58</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>59</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>60</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>61</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>62</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>63</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>44990</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>64</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>65</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>66</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>67</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>68</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>69</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>70</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>71</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>72</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>73</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>74</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>75</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>76</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>77</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>78</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>79</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>80</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>81</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>82</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>83</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>45010</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>84</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>85</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>86</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>87</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>88</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>89</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>90</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>45017</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>91</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>45018</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>92</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>93</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>94</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>95</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>96</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>97</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>98</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>45025</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>99</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>100</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>45027</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>101</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>102</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>103</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>104</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>105</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>106</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>107</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>108</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>109</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>110</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>111</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>45038</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>112</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>45039</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>113</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>114</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>115</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>117</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>118</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>119</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>120</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>121</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>122</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>123</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>124</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>125</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>126</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>127</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>128</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>129</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>130</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>131</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>132</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>133</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>134</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>135</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>136</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>137</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>138</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>139</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>140</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>141</v>
       </c>
@@ -2285,7 +2285,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>142</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>143</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>144</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>45071</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>145</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>146</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>45073</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>147</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>45074</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>148</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>149</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>45076</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>150</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>151</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="157" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>152</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="158" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>153</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="159" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>154</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>155</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>156</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>157</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>158</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>159</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>45086</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>160</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>161</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>45088</v>
       </c>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>162</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>45089</v>
       </c>
     </row>
-    <row r="168" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>163</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="169" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>164</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="170" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>165</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>166</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>167</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>45094</v>
       </c>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>168</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>169</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>45096</v>
       </c>
     </row>
-    <row r="175" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>170</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>171</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>45098</v>
       </c>
     </row>
-    <row r="177" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>172</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>45099</v>
       </c>
     </row>
-    <row r="178" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>173</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="179" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>174</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>45101</v>
       </c>
     </row>
-    <row r="180" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>175</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="181" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>176</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="182" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>177</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>45104</v>
       </c>
     </row>
-    <row r="183" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>178</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>45105</v>
       </c>
     </row>
-    <row r="184" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>179</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="185" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>180</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="186" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>181</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="187" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>182</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>45109</v>
       </c>
     </row>
-    <row r="188" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>183</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="189" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>184</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="190" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>185</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="191" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>186</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="192" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>187</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>188</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>45115</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>189</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>190</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>191</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>192</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>193</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="199" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>194</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>195</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>196</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="202" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>197</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>198</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="204" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>199</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="205" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>200</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>201</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="207" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>202</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>45129</v>
       </c>
     </row>
-    <row r="208" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>203</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>204</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>45131</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>205</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>45132</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>206</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>45133</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>207</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>45134</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>208</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>45135</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>209</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>45136</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>210</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>211</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>212</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>213</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>214</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>215</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>45142</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>216</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>217</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>218</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>45145</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>219</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="225" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>220</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="226" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>221</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>45148</v>
       </c>
     </row>
-    <row r="227" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>222</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="228" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>223</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="229" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>224</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="230" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>225</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>45152</v>
       </c>
     </row>
-    <row r="231" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>226</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="232" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>227</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>45154</v>
       </c>
     </row>
-    <row r="233" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>228</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="234" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>229</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="235" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>230</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>45157</v>
       </c>
     </row>
-    <row r="236" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>231</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="237" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>232</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>45159</v>
       </c>
     </row>
-    <row r="238" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>233</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="239" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>234</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="240" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>235</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>236</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>237</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>238</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>45165</v>
       </c>
     </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>239</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>45166</v>
       </c>
     </row>
-    <row r="245" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>240</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>45167</v>
       </c>
     </row>
-    <row r="246" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>241</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>45168</v>
       </c>
     </row>
-    <row r="247" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>242</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>45169</v>
       </c>
     </row>
-    <row r="248" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>243</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="249" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>244</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>45171</v>
       </c>
     </row>
-    <row r="250" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>245</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="251" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>246</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="252" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>247</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>45174</v>
       </c>
     </row>
-    <row r="253" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>248</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="254" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>249</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="255" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>250</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="256" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>251</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>45178</v>
       </c>
     </row>
-    <row r="257" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>252</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="258" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>253</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="259" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>254</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="260" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>255</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>45182</v>
       </c>
     </row>
-    <row r="261" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>256</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="262" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>257</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="263" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>258</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>45185</v>
       </c>
     </row>
-    <row r="264" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>259</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="265" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>260</v>
       </c>
@@ -3594,7 +3594,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="266" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>261</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>45188</v>
       </c>
     </row>
-    <row r="267" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>262</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="268" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>263</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="269" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>264</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="270" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>265</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="271" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>266</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="272" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>267</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="273" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>268</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="274" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>269</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="275" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>270</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="276" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>271</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="277" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>272</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>45199</v>
       </c>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>273</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="279" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>274</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>45201</v>
       </c>
     </row>
-    <row r="280" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>275</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>45202</v>
       </c>
     </row>
-    <row r="281" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>276</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>45203</v>
       </c>
     </row>
-    <row r="282" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>277</v>
       </c>
@@ -3781,7 +3781,7 @@
         <v>45204</v>
       </c>
     </row>
-    <row r="283" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>278</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>45205</v>
       </c>
     </row>
-    <row r="284" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>279</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>45206</v>
       </c>
     </row>
-    <row r="285" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>280</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="286" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>281</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="287" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>282</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="288" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>283</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="289" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>284</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="290" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>285</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>45212</v>
       </c>
     </row>
-    <row r="291" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>286</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="292" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>287</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="293" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>288</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>45215</v>
       </c>
     </row>
-    <row r="294" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>289</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>45216</v>
       </c>
     </row>
-    <row r="295" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>290</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="296" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>291</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="297" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>292</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>45219</v>
       </c>
     </row>
-    <row r="298" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>293</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>45220</v>
       </c>
     </row>
-    <row r="299" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>294</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="300" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>295</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="301" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>296</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>45223</v>
       </c>
     </row>
-    <row r="302" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>297</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="303" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>298</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="304" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>299</v>
       </c>
@@ -4023,7 +4023,7 @@
         <v>45226</v>
       </c>
     </row>
-    <row r="305" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>300</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="306" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>301</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="307" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>302</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="308" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>303</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>45230</v>
       </c>
     </row>
-    <row r="309" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>304</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>45231</v>
       </c>
     </row>
-    <row r="310" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>305</v>
       </c>
@@ -4089,7 +4089,7 @@
         <v>45232</v>
       </c>
     </row>
-    <row r="311" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>306</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>45233</v>
       </c>
     </row>
-    <row r="312" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>307</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>45234</v>
       </c>
     </row>
-    <row r="313" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>308</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>45235</v>
       </c>
     </row>
-    <row r="314" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>309</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>45236</v>
       </c>
     </row>
-    <row r="315" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>310</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="316" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>311</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="317" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>312</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="318" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>313</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="319" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>314</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>45241</v>
       </c>
     </row>
-    <row r="320" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>315</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="321" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>316</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="322" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>317</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>45244</v>
       </c>
     </row>
-    <row r="323" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>318</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>45245</v>
       </c>
     </row>
-    <row r="324" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>319</v>
       </c>
@@ -4243,7 +4243,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="325" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>320</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="326" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>321</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>45248</v>
       </c>
     </row>
-    <row r="327" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>322</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>45249</v>
       </c>
     </row>
-    <row r="328" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>323</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="329" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>324</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="330" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>325</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>45252</v>
       </c>
     </row>
-    <row r="331" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>326</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="332" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>327</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="333" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>328</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="334" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>329</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>45256</v>
       </c>
     </row>
-    <row r="335" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>330</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>331</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>45258</v>
       </c>
     </row>
-    <row r="337" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>332</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="338" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>333</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>45260</v>
       </c>
     </row>
-    <row r="339" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>334</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="340" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>335</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>45262</v>
       </c>
     </row>
-    <row r="341" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>336</v>
       </c>
@@ -4430,7 +4430,7 @@
         <v>45263</v>
       </c>
     </row>
-    <row r="342" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>337</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>45264</v>
       </c>
     </row>
-    <row r="343" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>338</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>45265</v>
       </c>
     </row>
-    <row r="344" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>339</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="345" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>340</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="346" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>341</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="347" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>342</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="348" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>343</v>
       </c>
@@ -4507,7 +4507,7 @@
         <v>45270</v>
       </c>
     </row>
-    <row r="349" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>344</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>45271</v>
       </c>
     </row>
-    <row r="350" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>345</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>45272</v>
       </c>
     </row>
-    <row r="351" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>346</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="352" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>347</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>45274</v>
       </c>
     </row>
-    <row r="353" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>348</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>45275</v>
       </c>
     </row>
-    <row r="354" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>349</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>45276</v>
       </c>
     </row>
-    <row r="355" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>350</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>45277</v>
       </c>
     </row>
-    <row r="356" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>351</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>45278</v>
       </c>
     </row>
-    <row r="357" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>352</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>45279</v>
       </c>
     </row>
-    <row r="358" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>353</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>45280</v>
       </c>
     </row>
-    <row r="359" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>354</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>45281</v>
       </c>
     </row>
-    <row r="360" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>355</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>45282</v>
       </c>
     </row>
-    <row r="361" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>356</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>45283</v>
       </c>
     </row>
-    <row r="362" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>357</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>45284</v>
       </c>
     </row>
-    <row r="363" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>358</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>45285</v>
       </c>
     </row>
-    <row r="364" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>359</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>45286</v>
       </c>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>360</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="366" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>361</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>45288</v>
       </c>
     </row>
-    <row r="367" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>362</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="368" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>363</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>45290</v>
       </c>
     </row>
-    <row r="369" spans="2:4" x14ac:dyDescent="0.5">
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>364</v>
       </c>
@@ -4747,44 +4747,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D51BF3-19D8-4747-8D38-553C2F3CC180}">
   <dimension ref="A1:J376"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="18.0625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.0625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
     <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="9.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" s="5">
         <v>0.4</v>
@@ -4794,7 +4794,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D5" s="1">
         <v>365</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="4">
         <f>2/15</f>
@@ -4813,7 +4813,7 @@
         <v>1.7777777777777778E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D6" s="4">
         <f>(D5-1)/D5</f>
         <v>0.99726027397260275</v>
@@ -4822,16 +4822,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
@@ -4839,14 +4839,14 @@
         <v>9</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:10" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
@@ -4854,14 +4854,14 @@
         <v>10</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" spans="2:10" s="8" customFormat="1" ht="29.25" x14ac:dyDescent="0.5">
+    <row r="11" spans="2:10" s="8" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
@@ -4872,14 +4872,14 @@
         <v>14</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" s="18"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>0</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>2</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>2.73972602739736E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>3</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>8.2116719834868235E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>4</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>1.6408352334217113E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>5</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>2.7322302053849334E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>6</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>4.0946076568769918E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>7</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>5.727225170145811E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>8</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>7.629342361460445E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>9</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>9.8002208755385567E-2</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>10</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0.12239124379989086</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>11</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0.14945318559769838</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>12</v>
       </c>
@@ -5150,7 +5150,7 @@
         <v>0.17918071111660794</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>13</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>0.21156651738752075</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>14</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>0.24660332144947184</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>15</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>0.28428386029481523</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>16</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>0.32460089081455479</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>17</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>0.36754718974383138</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>18</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>0.41311555360754681</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>19</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>0.46129879866615653</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>20</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>0.51208976086159197</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>21</v>
       </c>
@@ -5339,9 +5339,9 @@
         <v>0.56548129576334105</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34" s="12">
         <v>22</v>
@@ -5363,10 +5363,10 @@
         <v>0.62146627851467429</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>23</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>0.68003760377901656</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>24</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>0.74118818568647171</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>25</v>
       </c>
@@ -5429,7 +5429,7 @@
         <v>0.80491095778048205</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>26</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>0.87119887296464427</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>27</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>0.94004490344967095</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
         <v>28</v>
       </c>
@@ -5492,10 +5492,10 @@
         <v>1.0114420407004943</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>29</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>1.0853832953835045</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>30</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>1.1618616973139595</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>31</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>1.2408702954035107</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>32</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>1.3224021576078826</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>33</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>1.4064503708747083</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>34</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>1.4930080410914854</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>35</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>1.5820682930337</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>36</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>1.6736242703130628</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>37</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>1.7676691353259031</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>38</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1.864196069201725</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>39</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>1.9631982717518568</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>40</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>2.0646689614182918</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>41</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>2.1686013752226216</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>42</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>2.2749887687151613</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>43</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>2.3838244159241597</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>44</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>2.4951016093051877</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>45</v>
       </c>
@@ -5852,7 +5852,7 @@
         <v>2.6088136596906537</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>46</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>2.7249538962394482</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>47</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>2.843515666386736</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>48</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>2.9644923357938922</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>49</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>3.0878772882985643</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>50</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>3.2136639258648714</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>51</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>3.3418456685337361</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>52</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>3.4724159543733677</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>53</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>3.6053682394298789</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>54</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>3.7406959976780172</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>55</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>3.8783927209720517</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>56</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>4.0184519189967887</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>57</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>4.1608671192187145</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>58</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>4.3056318668372953</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>59</v>
       </c>
@@ -6146,7 +6146,7 @@
         <v>4.452739724736368</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>60</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>4.6021842734357179</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>61</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>4.7539591110427395</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>62</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>4.9080578532042622</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>63</v>
       </c>
@@ -6230,7 +6230,7 @@
         <v>5.0644741330584964</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>64</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>5.2232016011870996</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>65</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>5.3842339255674077</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>66</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>5.5475647915247563</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>67</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>5.7131879016849609</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>68</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>5.8810969759269227</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>69</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>6.0512857513353424</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>70</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>6.2237479821536041</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>71</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>6.3984774397367516</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>72</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>6.5754679125045925</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>73</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>6.754713205894987</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>74</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>6.9362071423171869</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>75</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>7.1199435611053588</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>76</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>7.3059163184721996</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>77</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>7.4941192874626807</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>78</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>7.6845463579079905</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>79</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>7.8771914363794764</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>80</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>8.0720484461428157</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>81</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>8.2691113271122845</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>82</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>8.4683740358051267</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>83</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>8.6698305452960653</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>84</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>8.8734748451719696</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>85</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>9.0793009414865651</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>86</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>9.287302856715371</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>87</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>9.4974746297106662</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>88</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>9.709810315656668</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>89</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>9.9243039860247251</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>90</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>10.140949728528767</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>91</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>10.359741647080739</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>92</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>10.580673861746277</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>93</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>10.8037405087004</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>94</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>11.028935740183414</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>95</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>11.256253724456883</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>96</v>
       </c>
@@ -6923,7 +6923,7 @@
         <v>11.485688645759737</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>97</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>11.717234704264499</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>98</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>11.950886116033629</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>99</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>12.186637112976001</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>100</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>12.424481942803467</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>101</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>12.664414868987564</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>102</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>12.906430170716362</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>103</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>13.150522142851386</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>104</v>
       </c>
@@ -7091,7 +7091,7 @@
         <v>13.396685095884663</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>105</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>13.644913355895937</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>106</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>13.895201264509922</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>107</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>14.147543178853724</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>108</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>14.401933471514397</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>109</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>14.658366530496551</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>110</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>14.916836759180114</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>111</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>15.177338576278245</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>112</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>15.439866415795294</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>113</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>15.704414726984893</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>114</v>
       </c>
@@ -7301,7 +7301,7 @@
         <v>15.970977974308227</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>115</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>16.239550637392313</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>116</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>16.5101272109885</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>117</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>16.782702204930999</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>118</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>17.057270144095568</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>119</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>17.333825568358321</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>120</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>17.612363032554597</v>
       </c>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>121</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>17.892877106438007</v>
       </c>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>122</v>
       </c>
@@ -7469,7 +7469,7 @@
         <v>18.175362374639548</v>
       </c>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>123</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>18.459813436626831</v>
       </c>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>124</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>18.746224906663471</v>
       </c>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>125</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>19.034591413768496</v>
       </c>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>126</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>19.324907601675974</v>
       </c>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>127</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>19.617168128794674</v>
       </c>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>128</v>
       </c>
@@ -7595,7 +7595,7 @@
         <v>19.911367668167841</v>
       </c>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>129</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>20.207500907433129</v>
       </c>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>130</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>20.505562548782621</v>
       </c>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>131</v>
       </c>
@@ -7658,7 +7658,7 @@
         <v>20.805547308922939</v>
       </c>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>132</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>21.107449919035474</v>
       </c>
     </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>133</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>21.411265124736744</v>
       </c>
     </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>134</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>21.716987686038834</v>
       </c>
     </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>135</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>22.024612377309964</v>
       </c>
     </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>136</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>22.334133987235134</v>
       </c>
     </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>137</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>22.645547318776948</v>
       </c>
     </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B150" s="1">
         <v>138</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>22.958847189136463</v>
       </c>
     </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B151" s="1">
         <v>139</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>23.274028429714164</v>
       </c>
     </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B152" s="1">
         <v>140</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>23.591085886071113</v>
       </c>
     </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B153" s="1">
         <v>141</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>23.910014417890096</v>
       </c>
     </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B154" s="1">
         <v>142</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>24.230808898936971</v>
       </c>
     </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B155" s="1">
         <v>143</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>24.553464217022068</v>
       </c>
     </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B156" s="1">
         <v>144</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>24.877975273961738</v>
       </c>
     </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B157" s="1">
         <v>145</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>25.204336985539925</v>
       </c>
     </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B158" s="1">
         <v>146</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>25.532544281469953</v>
       </c>
     </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B159" s="1">
         <v>147</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>25.862592105356342</v>
       </c>
     </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B160" s="1">
         <v>148</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>26.194475414656736</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B161" s="1">
         <v>149</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>26.528189180643977</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B162" s="1">
         <v>150</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>26.863728388368244</v>
       </c>
     </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B163" s="1">
         <v>151</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>27.201088036619282</v>
       </c>
     </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B164" s="1">
         <v>152</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>27.540263137888815</v>
       </c>
     </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B165" s="1">
         <v>153</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>27.881248718332955</v>
       </c>
     </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B166" s="1">
         <v>154</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>28.224039817734777</v>
       </c>
     </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B167" s="1">
         <v>155</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>28.568631489467009</v>
       </c>
     </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B168" s="1">
         <v>156</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>28.915018800454774</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B169" s="1">
         <v>157</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>29.263196831138458</v>
       </c>
     </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B170" s="1">
         <v>158</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>29.613160675436689</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B171" s="1">
         <v>159</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>29.964905440709458</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B172" s="1">
         <v>160</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>30.31842624772122</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B173" s="1">
         <v>161</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>30.67371823060418</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B174" s="1">
         <v>162</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>31.030776536821691</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B175" s="1">
         <v>163</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>31.389596327131756</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B176" s="1">
         <v>164</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>31.750172775550567</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B177" s="1">
         <v>165</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>32.112501069316181</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B178" s="1">
         <v>166</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>32.47657640885231</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B179" s="1">
         <v>167</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>32.842394007732167</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B180" s="1">
         <v>168</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>33.209949092642489</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B181" s="1">
         <v>169</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>33.579236903347578</v>
       </c>
     </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B182" s="1">
         <v>170</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>33.950252692653464</v>
       </c>
     </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B183" s="1">
         <v>171</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>34.322991726372209</v>
       </c>
     </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B184" s="1">
         <v>172</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>34.697449283286261</v>
       </c>
     </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B185" s="1">
         <v>173</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>35.073620655112876</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B186" s="1">
         <v>174</v>
       </c>
@@ -8561,7 +8561,7 @@
         <v>35.451501146468729</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B187" s="1">
         <v>175</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>35.831086074834559</v>
       </c>
     </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B188" s="1">
         <v>176</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>36.212370770519954</v>
       </c>
     </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B189" s="1">
         <v>177</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>36.595350576628107</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B190" s="1">
         <v>178</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>36.980020849020917</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B191" s="1">
         <v>179</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>37.366376956283858</v>
       </c>
     </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B192" s="1">
         <v>180</v>
       </c>
@@ -8687,7 +8687,7 @@
         <v>37.754414279691304</v>
       </c>
     </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B193" s="1">
         <v>181</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>38.144128213171598</v>
       </c>
     </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B194" s="1">
         <v>182</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>38.535514163272495</v>
       </c>
     </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B195" s="1">
         <v>183</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>38.928567549126541</v>
       </c>
     </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B196" s="1">
         <v>184</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>39.323283802416597</v>
       </c>
     </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B197" s="1">
         <v>185</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>39.719658367341481</v>
       </c>
     </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B198" s="1">
         <v>186</v>
       </c>
@@ -8813,7 +8813,7 @@
         <v>40.117686700581629</v>
       </c>
     </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B199" s="1">
         <v>187</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>40.517364271264967</v>
       </c>
     </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B200" s="1">
         <v>188</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>40.918686560932741</v>
       </c>
     </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B201" s="1">
         <v>189</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>41.321649063505532</v>
       </c>
     </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B202" s="1">
         <v>190</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>41.726247285249343</v>
       </c>
     </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B203" s="1">
         <v>191</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>42.132476744741808</v>
       </c>
     </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B204" s="1">
         <v>192</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>42.540332972838399</v>
       </c>
     </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B205" s="1">
         <v>193</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>42.949811512638831</v>
       </c>
     </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B206" s="1">
         <v>194</v>
       </c>
@@ -8981,7 +8981,7 @@
         <v>43.360907919453524</v>
       </c>
     </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B207" s="1">
         <v>195</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>43.773617760770094</v>
       </c>
     </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B208" s="1">
         <v>196</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>44.187936616220043</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="1">
         <v>197</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>44.603860077545477</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="1">
         <v>198</v>
       </c>
@@ -9065,7 +9065,7 @@
         <v>45.02138374856591</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="1">
         <v>199</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>45.44050324514518</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="1">
         <v>200</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>45.861214195158482</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="1">
         <v>201</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>46.283512238459423</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="1">
         <v>202</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>46.7073930268472</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="1">
         <v>203</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>47.132852224033911</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B216" s="1">
         <v>204</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>47.559885505611902</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B217" s="1">
         <v>205</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>47.988488559021192</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B218" s="1">
         <v>206</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>48.418657083517019</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B219" s="1">
         <v>207</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>48.85038679013752</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B220" s="1">
         <v>208</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>49.283673401671393</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B221" s="1">
         <v>209</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>49.718512652625719</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B222" s="1">
         <v>210</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>50.154900289193876</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B223" s="1">
         <v>211</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>50.592832069223476</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B224" s="1">
         <v>212</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>51.032303762184512</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B225" s="1">
         <v>213</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>51.47331114913743</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B226" s="1">
         <v>214</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>51.915850022701449</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B227" s="1">
         <v>215</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>52.359916187022804</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B228" s="1">
         <v>216</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>52.805505457743294</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B229" s="1">
         <v>217</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>53.252613661968667</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B230" s="1">
         <v>218</v>
       </c>
@@ -9485,7 +9485,7 @@
         <v>53.701236638237248</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B231" s="1">
         <v>219</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>54.151370236488646</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B232" s="1">
         <v>220</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>54.603010318032517</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B233" s="1">
         <v>221</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>55.05615275551736</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B234" s="1">
         <v>222</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>55.510793432899504</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B235" s="1">
         <v>223</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>55.966928245412106</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B236" s="1">
         <v>224</v>
       </c>
@@ -9611,7 +9611,7 @@
         <v>56.424553099534251</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B237" s="1">
         <v>225</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>56.883663912960174</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B238" s="1">
         <v>226</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>57.344256614568508</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B239" s="1">
         <v>227</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>57.806327144391616</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B240" s="1">
         <v>228</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>58.269871453585068</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B241" s="1">
         <v>229</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>58.73488550439717</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B242" s="1">
         <v>230</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>59.201365270138552</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B243" s="1">
         <v>231</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>59.669306735151878</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B244" s="1">
         <v>232</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>60.138705894781594</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B245" s="1">
         <v>233</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>60.609558755343841</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B246" s="1">
         <v>234</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>61.081861334096317</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B247" s="1">
         <v>235</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>61.555609659208386</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B248" s="1">
         <v>236</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>62.03079976973109</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B249" s="1">
         <v>237</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>62.507427715567445</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B250" s="1">
         <v>238</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>62.985489557442605</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B251" s="1">
         <v>239</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>63.464981366874269</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B252" s="1">
         <v>240</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>63.945899226143098</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B253" s="1">
         <v>241</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>64.428239228263266</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B254" s="1">
         <v>242</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>64.911997476952962</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B255" s="1">
         <v>243</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>65.397170086605144</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B256" s="1">
         <v>244</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>65.883753182258289</v>
       </c>
     </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B257" s="1">
         <v>245</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>66.371742899567181</v>
       </c>
     </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B258" s="1">
         <v>246</v>
       </c>
@@ -10073,7 +10073,7 @@
         <v>66.861135384773831</v>
       </c>
     </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B259" s="1">
         <v>247</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>67.351926794678548</v>
       </c>
     </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B260" s="1">
         <v>248</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>67.844113296610942</v>
       </c>
     </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B261" s="1">
         <v>249</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>68.337691068401057</v>
       </c>
     </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B262" s="1">
         <v>250</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>68.832656298350628</v>
       </c>
     </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B263" s="1">
         <v>251</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>69.329005185204466</v>
       </c>
     </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B264" s="1">
         <v>252</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>69.82673393812172</v>
       </c>
     </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B265" s="1">
         <v>253</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>70.325838776647402</v>
       </c>
     </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B266" s="1">
         <v>254</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>70.82631593068399</v>
       </c>
     </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B267" s="1">
         <v>255</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>71.328161640462923</v>
       </c>
     </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B268" s="1">
         <v>256</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>71.831372156516437</v>
       </c>
     </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B269" s="1">
         <v>257</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>72.335943739649281</v>
       </c>
     </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B270" s="1">
         <v>258</v>
       </c>
@@ -10325,7 +10325,7 @@
         <v>72.841872660910525</v>
       </c>
     </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B271" s="1">
         <v>259</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>73.349155201565566</v>
       </c>
     </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="272" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B272" s="1">
         <v>260</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>73.857787653068129</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B273" s="1">
         <v>261</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>74.367766317032334</v>
       </c>
     </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B274" s="1">
         <v>262</v>
       </c>
@@ -10409,7 +10409,7 @@
         <v>74.879087505204836</v>
       </c>
     </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B275" s="1">
         <v>263</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>75.391747539437148</v>
       </c>
     </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B276" s="1">
         <v>264</v>
       </c>
@@ -10451,7 +10451,7 @@
         <v>75.905742751657868</v>
       </c>
     </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B277" s="1">
         <v>265</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>76.421069483845116</v>
       </c>
     </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B278" s="1">
         <v>266</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>76.937724087998959</v>
       </c>
     </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B279" s="1">
         <v>267</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>77.455702926114014</v>
       </c>
     </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B280" s="1">
         <v>268</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>77.975002370152055</v>
       </c>
     </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B281" s="1">
         <v>269</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>78.495618802014661</v>
       </c>
     </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B282" s="1">
         <v>270</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>79.017548613515999</v>
       </c>
     </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B283" s="1">
         <v>271</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>79.540788206355671</v>
       </c>
     </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B284" s="1">
         <v>272</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>80.065333992091695</v>
       </c>
     </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B285" s="1">
         <v>273</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>80.591182392113353</v>
       </c>
     </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B286" s="1">
         <v>274</v>
       </c>
@@ -10661,7 +10661,7 @@
         <v>81.118329837614397</v>
       </c>
     </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B287" s="1">
         <v>275</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>81.646772769566127</v>
       </c>
     </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B288" s="1">
         <v>276</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>82.176507638690595</v>
       </c>
     </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="289" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B289" s="1">
         <v>277</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>82.707530905433913</v>
       </c>
     </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="290" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B290" s="1">
         <v>278</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>83.239839039939568</v>
       </c>
     </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="291" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B291" s="1">
         <v>279</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>83.773428522021931</v>
       </c>
     </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="292" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B292" s="1">
         <v>280</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>84.308295841139682</v>
       </c>
     </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="293" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B293" s="1">
         <v>281</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>84.844437496369437</v>
       </c>
     </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="294" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B294" s="1">
         <v>282</v>
       </c>
@@ -10829,7 +10829,7 @@
         <v>85.381849996379373</v>
       </c>
     </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="295" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B295" s="1">
         <v>283</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>85.92052985940299</v>
       </c>
     </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="296" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B296" s="1">
         <v>284</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>86.460473613212855</v>
       </c>
     </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="297" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B297" s="1">
         <v>285</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>87.001677795094452</v>
       </c>
     </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="298" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B298" s="1">
         <v>286</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>87.54413895182023</v>
       </c>
     </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="299" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B299" s="1">
         <v>287</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>88.087853639623461</v>
       </c>
     </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="300" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B300" s="1">
         <v>288</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>88.632818424172427</v>
       </c>
     </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="301" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B301" s="1">
         <v>289</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>89.179029880544562</v>
       </c>
     </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="302" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B302" s="1">
         <v>290</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>89.72648459320061</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B303" s="1">
         <v>291</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>90.275179155958966</v>
       </c>
     </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="304" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B304" s="1">
         <v>292</v>
       </c>
@@ -11039,7 +11039,7 @@
         <v>90.825110171970039</v>
       </c>
     </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="305" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B305" s="1">
         <v>293</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>91.376274253690667</v>
       </c>
     </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="306" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B306" s="1">
         <v>294</v>
       </c>
@@ -11081,7 +11081,7 @@
         <v>91.928668022858631</v>
       </c>
     </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="307" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B307" s="1">
         <v>295</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>92.482288110467238</v>
       </c>
     </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="308" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B308" s="1">
         <v>296</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>93.037131156739918</v>
       </c>
     </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="309" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B309" s="1">
         <v>297</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>93.59319381110501</v>
       </c>
     </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="310" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B310" s="1">
         <v>298</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>94.150472732170471</v>
       </c>
     </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="311" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B311" s="1">
         <v>299</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>94.708964587698773</v>
       </c>
     </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="312" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B312" s="1">
         <v>300</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>95.268666054581786</v>
       </c>
     </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="313" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B313" s="1">
         <v>301</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>95.829573818815817</v>
       </c>
     </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="314" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B314" s="1">
         <v>302</v>
       </c>
@@ -11249,7 +11249,7 @@
         <v>96.391684575476603</v>
       </c>
     </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="315" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B315" s="1">
         <v>303</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>96.954995028694469</v>
       </c>
     </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="316" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B316" s="1">
         <v>304</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>97.519501891629545</v>
       </c>
     </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="317" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B317" s="1">
         <v>305</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>98.08520188644701</v>
       </c>
     </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="318" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B318" s="1">
         <v>306</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>98.652091744292363</v>
       </c>
     </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="319" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B319" s="1">
         <v>307</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>99.220168205266901</v>
       </c>
     </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="320" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B320" s="1">
         <v>308</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>99.789428018403157</v>
       </c>
     </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="321" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B321" s="1">
         <v>309</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>100.3598679416404</v>
       </c>
     </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="322" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B322" s="1">
         <v>310</v>
       </c>
@@ -11417,7 +11417,7 @@
         <v>100.93148474180029</v>
       </c>
     </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="323" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B323" s="1">
         <v>311</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>101.50427519456247</v>
       </c>
     </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="324" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B324" s="1">
         <v>312</v>
       </c>
@@ -11459,7 +11459,7 @@
         <v>102.07823608444036</v>
       </c>
     </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="325" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B325" s="1">
         <v>313</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>102.65336420475697</v>
       </c>
     </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="326" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B326" s="1">
         <v>314</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>103.22965635762066</v>
       </c>
     </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="327" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B327" s="1">
         <v>315</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>103.80710935390115</v>
       </c>
     </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="328" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B328" s="1">
         <v>316</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>104.38572001320554</v>
       </c>
     </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="329" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B329" s="1">
         <v>317</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>104.96548516385428</v>
       </c>
     </row>
-    <row r="330" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="330" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B330" s="1">
         <v>318</v>
       </c>
@@ -11585,7 +11585,7 @@
         <v>105.54640164285743</v>
       </c>
     </row>
-    <row r="331" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="331" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B331" s="1">
         <v>319</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>106.12846629589069</v>
       </c>
     </row>
-    <row r="332" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="332" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B332" s="1">
         <v>320</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>106.7116759772718</v>
       </c>
     </row>
-    <row r="333" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="333" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B333" s="1">
         <v>321</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>107.29602754993681</v>
       </c>
     </row>
-    <row r="334" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="334" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B334" s="1">
         <v>322</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>107.88151788541643</v>
       </c>
     </row>
-    <row r="335" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="335" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B335" s="1">
         <v>323</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>108.46814386381254</v>
       </c>
     </row>
-    <row r="336" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="336" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B336" s="1">
         <v>324</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>109.0559023737747</v>
       </c>
     </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="1">
         <v>325</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>109.64479031247669</v>
       </c>
     </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="1">
         <v>326</v>
       </c>
@@ -11753,7 +11753,7 @@
         <v>110.2348045855932</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="1">
         <v>327</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>110.82594210727649</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="1">
         <v>328</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>111.41819980013327</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="1">
         <v>329</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>112.01157459520138</v>
       </c>
     </row>
-    <row r="342" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="342" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B342" s="1">
         <v>330</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>112.60606343192686</v>
       </c>
     </row>
-    <row r="343" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="343" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B343" s="1">
         <v>331</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>113.20166325814074</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="1">
         <v>332</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>113.79837103003624</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B345" s="1">
         <v>333</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>114.39618371214573</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B346" s="1">
         <v>334</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>114.99509827731794</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B347" s="1">
         <v>335</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>115.59511170669515</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B348" s="1">
         <v>336</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>116.19622098969052</v>
       </c>
     </row>
-    <row r="349" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="349" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B349" s="1">
         <v>337</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>116.79842312396534</v>
       </c>
     </row>
-    <row r="350" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="350" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B350" s="1">
         <v>338</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>117.40171511540652</v>
       </c>
     </row>
-    <row r="351" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="351" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B351" s="1">
         <v>339</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>118.00609397810402</v>
       </c>
     </row>
-    <row r="352" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="352" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B352" s="1">
         <v>340</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>118.61155673432839</v>
       </c>
     </row>
-    <row r="353" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="353" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B353" s="1">
         <v>341</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>119.21810041450831</v>
       </c>
     </row>
-    <row r="354" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="354" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B354" s="1">
         <v>342</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>119.82572205720828</v>
       </c>
     </row>
-    <row r="355" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="355" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B355" s="1">
         <v>343</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>120.43441870910632</v>
       </c>
     </row>
-    <row r="356" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="356" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B356" s="1">
         <v>344</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>121.0441874249718</v>
       </c>
     </row>
-    <row r="357" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="357" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B357" s="1">
         <v>345</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>121.65502526764311</v>
       </c>
     </row>
-    <row r="358" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="358" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B358" s="1">
         <v>346</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>122.26692930800573</v>
       </c>
     </row>
-    <row r="359" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="359" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B359" s="1">
         <v>347</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>122.87989662497009</v>
       </c>
     </row>
-    <row r="360" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="360" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B360" s="1">
         <v>348</v>
       </c>
@@ -12215,7 +12215,7 @@
         <v>123.49392430544961</v>
       </c>
     </row>
-    <row r="361" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="361" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B361" s="1">
         <v>349</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>124.1090094443388</v>
       </c>
     </row>
-    <row r="362" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="362" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B362" s="1">
         <v>350</v>
       </c>
@@ -12257,7 +12257,7 @@
         <v>124.7251491444913</v>
       </c>
     </row>
-    <row r="363" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="363" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B363" s="1">
         <v>351</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>125.34234051669816</v>
       </c>
     </row>
-    <row r="364" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="364" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B364" s="1">
         <v>352</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>125.96058067966609</v>
       </c>
     </row>
-    <row r="365" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="365" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B365" s="1">
         <v>353</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>126.57986675999578</v>
       </c>
     </row>
-    <row r="366" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="366" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B366" s="1">
         <v>354</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>127.20019589216017</v>
       </c>
     </row>
-    <row r="367" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="367" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B367" s="1">
         <v>355</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>127.82156521848302</v>
       </c>
     </row>
-    <row r="368" spans="2:6" x14ac:dyDescent="0.5">
+    <row r="368" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B368" s="1">
         <v>356</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>128.44397188911731</v>
       </c>
     </row>
-    <row r="369" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="1">
         <v>357</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>129.06741306202383</v>
       </c>
     </row>
-    <row r="370" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="1">
         <v>358</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>129.69188590294979</v>
       </c>
     </row>
-    <row r="371" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="1">
         <v>359</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>130.31738758540746</v>
       </c>
     </row>
-    <row r="372" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="1">
         <v>360</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>130.94391529065291</v>
       </c>
     </row>
-    <row r="373" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="1">
         <v>361</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>131.57146620766483</v>
       </c>
     </row>
-    <row r="374" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" s="1">
         <v>362</v>
       </c>
@@ -12509,7 +12509,7 @@
         <v>132.20003753312326</v>
       </c>
     </row>
-    <row r="375" spans="2:7" x14ac:dyDescent="0.5">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="1">
         <v>363</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>132.82962647138868</v>
       </c>
     </row>
-    <row r="376" spans="2:7" s="12" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="376" spans="2:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B376" s="12">
         <v>364</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>133.46023023448078</v>
       </c>
       <c r="G376" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
